--- a/2. Skenario Test/Skenario Test Request Demo.xlsx
+++ b/2. Skenario Test/Skenario Test Request Demo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\SQA-MileApp\SQA-MileApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\SQA-MileApp\SQA-MileApp\2. Skenario Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>TS_UI_1</t>
   </si>
@@ -239,12 +239,15 @@
   <si>
     <t>Note</t>
   </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +275,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,8 +440,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -476,17 +488,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -767,10 +780,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -784,7 +797,7 @@
     <col min="7" max="7" width="23.1796875" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" style="1"/>
     <col min="9" max="9" width="20.90625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="13.6328125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -848,7 +861,9 @@
       <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="11"/>
@@ -868,13 +883,15 @@
       <c r="G3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="15"/>
+      <c r="J3" s="17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
@@ -900,7 +917,9 @@
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="174" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -924,13 +943,13 @@
       <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -950,13 +969,15 @@
       <c r="G6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
@@ -982,10 +1003,15 @@
       <c r="I7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/2. Skenario Test/Skenario Test Request Demo.xlsx
+++ b/2. Skenario Test/Skenario Test Request Demo.xlsx
@@ -308,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -439,12 +439,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -494,7 +522,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,9 +815,9 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -861,7 +895,7 @@
       <c r="I2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -889,7 +923,7 @@
       <c r="I3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="19" t="s">
         <v>44</v>
       </c>
     </row>
@@ -917,7 +951,7 @@
       <c r="I4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="17" t="s">
         <v>22</v>
       </c>
     </row>
@@ -949,7 +983,7 @@
       <c r="I5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="5"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
@@ -975,7 +1009,7 @@
       <c r="I6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1003,7 +1037,7 @@
       <c r="I7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
     </row>

--- a/2. Skenario Test/Skenario Test Request Demo.xlsx
+++ b/2. Skenario Test/Skenario Test Request Demo.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>TS_UI_1</t>
   </si>
@@ -241,6 +241,16 @@
   </si>
   <si>
     <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Your Name: John Doe
+Company email: john.doe@company.com
+Phone number: 82134567890
+Company Name: Company
+Type of your industry: Retail
+Job Position: Manager
+Select Product: Shipping Management
+Number Of User: 1-100</t>
   </si>
 </sst>
 </file>
@@ -814,10 +824,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -884,7 +894,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>15</v>
